--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AK$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AL$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>BÁO CÁO THỦ THUẬT NỘI SOI DẠ DÀY</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GIUPVIEC1NSDD_TIEN</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,27 +539,54 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -570,36 +600,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AA1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15:AI15"/>
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,32 +915,33 @@
     <col min="31" max="31" width="27.7109375" style="1" customWidth="1"/>
     <col min="32" max="32" width="15.140625" style="9" customWidth="1"/>
     <col min="33" max="33" width="27.7109375" style="1" customWidth="1"/>
-    <col min="34" max="36" width="19.85546875" style="13" customWidth="1"/>
-    <col min="37" max="37" width="17.85546875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="34" max="34" width="15.140625" style="9" customWidth="1"/>
+    <col min="35" max="37" width="19.85546875" style="13" customWidth="1"/>
+    <col min="38" max="38" width="17.85546875" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
       <c r="S2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
@@ -948,173 +949,175 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
       <c r="AF2" s="10"/>
-      <c r="AH2" s="13"/>
+      <c r="AH2" s="10"/>
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
-    <row r="3" spans="1:37" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="44" t="s">
+    <row r="3" spans="1:38" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
-    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="45" t="s">
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:37" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:38" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="31" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="38" t="s">
+      <c r="Y8" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="Z8" s="31" t="s">
+      <c r="Z8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="37" t="s">
+      <c r="AA8" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="46" t="s">
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="26" t="s">
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="28" t="s">
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI8" s="28" t="s">
+      <c r="AJ8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AJ8" s="28" t="s">
+      <c r="AK8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="28" t="s">
+      <c r="AL8" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+    <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="32"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="28"/>
       <c r="AA9" s="18" t="s">
         <v>61</v>
       </c>
@@ -1136,12 +1139,15 @@
       <c r="AG9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
+      <c r="AH9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
     </row>
-    <row r="10" spans="1:37" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1242,19 +1248,22 @@
         <v>33</v>
       </c>
       <c r="AH10" s="5">
+        <v>41</v>
+      </c>
+      <c r="AI10" s="5">
         <v>34</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AJ10" s="5">
         <v>35</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AK10" s="5">
         <v>36</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AL10" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1285,10 +1294,10 @@
       <c r="J11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>52</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1354,24 +1363,27 @@
       <c r="AG11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH11" s="14" t="s">
+      <c r="AH11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="14" t="s">
+      <c r="AJ11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AJ11" s="14" t="s">
+      <c r="AK11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
     </row>
-    <row r="12" spans="1:37" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:38" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -1434,42 +1446,26 @@
         <v>0</v>
       </c>
       <c r="AG12" s="20"/>
-      <c r="AH12" s="21"/>
+      <c r="AH12" s="20">
+        <f>SUM(AH11:AH11)</f>
+        <v>0</v>
+      </c>
       <c r="AI12" s="21"/>
       <c r="AJ12" s="21"/>
       <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O16" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G4:P4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AH15:AI15"/>
+  <mergeCells count="37">
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1484,6 +1480,27 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="V8:V9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay.xlsx
@@ -185,9 +185,6 @@
     <t>Ngày thực hiện</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].NGAY_THUCHIEN</t>
-  </si>
-  <si>
     <t>Phòng chỉ định</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].GIUPVIEC1NSDD_TIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].NGAY_THUCHIEN_TP</t>
   </si>
 </sst>
 </file>
@@ -542,28 +542,40 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,22 +596,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AA1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,18 +930,18 @@
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="G2" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
       <c r="S2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
@@ -955,180 +955,180 @@
       <c r="AK2" s="13"/>
     </row>
     <row r="3" spans="1:38" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:38" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="27" t="s">
+      <c r="E8" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="27" t="s">
+      <c r="O8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="29" t="s">
+      <c r="S8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="29" t="s">
+      <c r="V8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="29" t="s">
+      <c r="W8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="X8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X8" s="29" t="s">
+      <c r="Y8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="27" t="s">
+      <c r="Z8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="31" t="s">
+      <c r="AA8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="31" t="s">
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="33" t="s">
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AJ8" s="33" t="s">
+      <c r="AJ8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AK8" s="33" t="s">
+      <c r="AK8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AL8" s="33" t="s">
-        <v>65</v>
+      <c r="AL8" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="28"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="31"/>
       <c r="AA9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="18" t="s">
+      <c r="AC9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AD9" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="AD9" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="AE9" s="16" t="s">
         <v>22</v>
@@ -1142,10 +1142,10 @@
       <c r="AH9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
     </row>
     <row r="10" spans="1:38" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1277,28 +1277,28 @@
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>35</v>
@@ -1307,7 +1307,7 @@
         <v>36</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>37</v>
@@ -1331,28 +1331,28 @@
         <v>42</v>
       </c>
       <c r="W11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="Y11" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="Y11" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AA11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="AE11" s="2" t="s">
         <v>45</v>
@@ -1364,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="AH11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI11" s="14" t="s">
         <v>48</v>
@@ -1378,12 +1378,12 @@
       <c r="AL11" s="14"/>
     </row>
     <row r="12" spans="1:38" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -1456,14 +1456,35 @@
       <c r="AL12" s="21"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AL8:AL9"/>
     <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="A8:A9"/>
@@ -1480,27 +1501,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="V8:V9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G4:P4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGAY_THUCHIEN_TP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -542,21 +545,51 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -570,36 +603,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,7 +889,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,23 +928,26 @@
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
       <c r="S2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
@@ -955,169 +961,169 @@
       <c r="AK2" s="13"/>
     </row>
     <row r="3" spans="1:38" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:38" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="S8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="37" t="s">
+      <c r="U8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="37" t="s">
+      <c r="V8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="37" t="s">
+      <c r="W8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="37" t="s">
+      <c r="X8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="37" t="s">
+      <c r="Y8" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="Z8" s="30" t="s">
+      <c r="Z8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="36" t="s">
+      <c r="AA8" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="45" t="s">
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="45" t="s">
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="27" t="s">
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AJ8" s="27" t="s">
+      <c r="AJ8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AK8" s="27" t="s">
+      <c r="AK8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AL8" s="27" t="s">
+      <c r="AL8" s="31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="31"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="28"/>
       <c r="AA9" s="18" t="s">
         <v>60</v>
       </c>
@@ -1142,10 +1148,10 @@
       <c r="AH9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
     </row>
     <row r="10" spans="1:38" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1378,12 +1384,12 @@
       <c r="AL11" s="14"/>
     </row>
     <row r="12" spans="1:38" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -1456,19 +1462,30 @@
       <c r="AL12" s="21"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="V8:V9"/>
     <mergeCell ref="AK8:AK9"/>
     <mergeCell ref="AI8:AI9"/>
     <mergeCell ref="AJ8:AJ9"/>
@@ -1485,22 +1502,11 @@
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_TT_NoiSoiDaDay.xlsx
@@ -545,22 +545,40 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,24 +603,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AD1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
@@ -936,18 +936,18 @@
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
       <c r="S2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
@@ -961,169 +961,169 @@
       <c r="AK2" s="13"/>
     </row>
     <row r="3" spans="1:38" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:38" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="27" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="29" t="s">
+      <c r="S8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="29" t="s">
+      <c r="V8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="29" t="s">
+      <c r="W8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="29" t="s">
+      <c r="X8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="29" t="s">
+      <c r="Y8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="Z8" s="27" t="s">
+      <c r="Z8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="46" t="s">
+      <c r="AA8" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="39" t="s">
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="39" t="s">
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="31" t="s">
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AJ8" s="31" t="s">
+      <c r="AJ8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AK8" s="31" t="s">
+      <c r="AK8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AL8" s="31" t="s">
+      <c r="AL8" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="28"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="31"/>
       <c r="AA9" s="18" t="s">
         <v>60</v>
       </c>
@@ -1148,10 +1148,10 @@
       <c r="AH9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
     </row>
     <row r="10" spans="1:38" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1384,12 +1384,12 @@
       <c r="AL11" s="14"/>
     </row>
     <row r="12" spans="1:38" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -1462,14 +1462,35 @@
       <c r="AL12" s="21"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AL8:AL9"/>
     <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="A8:A9"/>
@@ -1486,31 +1507,10 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="V8:V9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G4:P4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="17" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="30" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
